--- a/biology/Botanique/Totum/Totum.xlsx
+++ b/biology/Botanique/Totum/Totum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le totum d'une plante est une notion de phytothérapie désignant la globalité d'une plante[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le totum d'une plante est une notion de phytothérapie désignant la globalité d'une plante.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Obtenu grâce à des galéniques récentes, le totum a toujours été l'objectif ultime de tous les herboristes[2]. Son but théorique est d'obtenir l'intégralité d'une plante et donc d'en conserver tous les bienfaits et tous les principes actifs.
-Propres à l'étude des plantes médicinales, le totum d'une plante est supérieur à celui de ses constituants, et fait acquérir aux patients des effets supérieurs, parfois indésirables[3].
-Dans le cas des huiles essentielles, le totum est l'« ensemble de toutes les molécules d’une huile essentielle, récupérées après une distillation douce, complète et non fractionnée », sachant qu'un huile essentielle (distillée à partir d'une plante aromatique) contient jusqu'à des centaines de molécules différentes, chacune présente en quantité variable, parfois infime. Ces huiles contiennent néanmoins 3 à 10 constituants majeurs (&gt; à 1%)[4]. 
-« L’action de l’huile essentielle entière, recueillie dans son intégralité, s’avère souvent plus importante et diffère de celle de ses principes actifs pris isolément[4]. Ainsi, on constate notamment une toxicité différente, souvent diminuée, pour l’huile essentielle totale, prise dans sa globalité, par rapport à l’utilisation de certains de ses constituants pris isolément »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obtenu grâce à des galéniques récentes, le totum a toujours été l'objectif ultime de tous les herboristes. Son but théorique est d'obtenir l'intégralité d'une plante et donc d'en conserver tous les bienfaits et tous les principes actifs.
+Propres à l'étude des plantes médicinales, le totum d'une plante est supérieur à celui de ses constituants, et fait acquérir aux patients des effets supérieurs, parfois indésirables.
+Dans le cas des huiles essentielles, le totum est l'« ensemble de toutes les molécules d’une huile essentielle, récupérées après une distillation douce, complète et non fractionnée », sachant qu'un huile essentielle (distillée à partir d'une plante aromatique) contient jusqu'à des centaines de molécules différentes, chacune présente en quantité variable, parfois infime. Ces huiles contiennent néanmoins 3 à 10 constituants majeurs (&gt; à 1%). 
+« L’action de l’huile essentielle entière, recueillie dans son intégralité, s’avère souvent plus importante et diffère de celle de ses principes actifs pris isolément. Ainsi, on constate notamment une toxicité différente, souvent diminuée, pour l’huile essentielle totale, prise dans sa globalité, par rapport à l’utilisation de certains de ses constituants pris isolément ».
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est principalement la mise au point du cryobroyage qui a permis de préserver l'intégralité des principes actifs d'une plante[5]. Fragiles, les plantes se détériorent rapidement lorsqu'elles subissent des transformations. Le cryobroyage consiste à pulvériser de l'azote liquide à −196 °C sur la partie active d'une plante et de la broyer à froid, évitant les dégradations par le chauffage et le séchage. Contrairement à la chaleur, le froid n'endommage pas la structure enzymatique des plantes, et évite l'extraction par solvant, autre technique abîmant les plantes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est principalement la mise au point du cryobroyage qui a permis de préserver l'intégralité des principes actifs d'une plante. Fragiles, les plantes se détériorent rapidement lorsqu'elles subissent des transformations. Le cryobroyage consiste à pulvériser de l'azote liquide à −196 °C sur la partie active d'une plante et de la broyer à froid, évitant les dégradations par le chauffage et le séchage. Contrairement à la chaleur, le froid n'endommage pas la structure enzymatique des plantes, et évite l'extraction par solvant, autre technique abîmant les plantes.
 </t>
         </is>
       </c>
